--- a/biology/Botanique/Clitocybe_geotropa_var._maxima/Clitocybe_geotropa_var._maxima.xlsx
+++ b/biology/Botanique/Clitocybe_geotropa_var._maxima/Clitocybe_geotropa_var._maxima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clitocybe geotropa var. maxima est une variété de Clitocybe geotropa, une espèce de champignons basidiomycètes du genre des Clitocybes.
 </t>
@@ -511,12 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Clitocybe geotropa var. maxima (Gaertn. &amp; G. Mey.) Konrad &amp; Maubl[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitocybe geotropa var. maxima (Gaertn. &amp; G. Mey.) Konrad &amp; Maubl.
 D'après Species Fungorum, 9.0, Sep 2010, le genre Infundibulicybe est placé par la phylogénétique entre les deux clades Marasmioïde et Tricholomatoïde et remplace Clitocybe pour la variété geotropa var. maxima; au 22 décembre 2011 la nouvelle nomenclature pour ce taxon n'est pas encore parue.[pas clair]
-Synonyme
-Clitocybe maxima[2]</t>
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chapeau jusqu'à 25 cm de diamètre, déprimé, brun roussâtre à marge un peu côtelée, sans mamelon au centre.
-</t>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clitocybe maxima</t>
         </is>
       </c>
     </row>
@@ -572,12 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitats</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forêts.
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau jusqu'à 25 cm de diamètre, déprimé, brun roussâtre à marge un peu côtelée, sans mamelon au centre.
 </t>
         </is>
       </c>
@@ -603,10 +623,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clitocybe_geotropa_var._maxima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_geotropa_var._maxima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe.
 </t>
